--- a/lab4/report/tddc78-lab4.xlsx
+++ b/lab4/report/tddc78-lab4.xlsx
@@ -324,6 +324,7 @@
         <c:axId val="2128861928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -483,16 +484,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -513,15 +514,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -869,7 +870,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/lab4/report/tddc78-lab4.xlsx
+++ b/lab4/report/tddc78-lab4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Processes</t>
   </si>
@@ -30,28 +30,13 @@
     <t>Average</t>
   </si>
   <si>
-    <t>10k x 10k</t>
-  </si>
-  <si>
-    <t>500 particles</t>
-  </si>
-  <si>
-    <t>100 time units</t>
-  </si>
-  <si>
-    <t>Size A</t>
-  </si>
-  <si>
-    <t>Size B</t>
-  </si>
-  <si>
-    <t>1000 particles</t>
-  </si>
-  <si>
     <t>Particles</t>
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>500/node</t>
   </si>
 </sst>
 </file>
@@ -302,11 +287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128805544"/>
-        <c:axId val="2128861928"/>
+        <c:axId val="-2112259144"/>
+        <c:axId val="-2112257192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128805544"/>
+        <c:axId val="-2112259144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,12 +301,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128861928"/>
+        <c:crossAx val="-2112257192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128861928"/>
+        <c:axId val="-2112257192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0"/>
@@ -333,7 +318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128805544"/>
+        <c:crossAx val="-2112259144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -431,11 +416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119383272"/>
-        <c:axId val="-2119380472"/>
+        <c:axId val="-2112234888"/>
+        <c:axId val="-2112232744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119383272"/>
+        <c:axId val="-2112234888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,12 +430,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119380472"/>
+        <c:crossAx val="-2112232744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2119380472"/>
+        <c:axId val="-2112232744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.32"/>
@@ -463,7 +448,135 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119383272"/>
+        <c:crossAx val="-2112234888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.468091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03922565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01501295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0272143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2113962120"/>
+        <c:axId val="-2114402296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2113962120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2114402296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2114402296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2113962120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -514,16 +627,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -537,6 +650,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -867,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -882,7 +1027,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -971,7 +1116,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1005,8 +1150,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
-        <v>500</v>
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1023,8 +1168,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
-        <v>500</v>
+      <c r="A12" t="s">
+        <v>5</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1036,13 +1181,13 @@
         <v>0.12604399999999999</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E11:E13" si="1">AVERAGE(C12:D12)</f>
+        <f t="shared" ref="E12:E13" si="1">AVERAGE(C12:D12)</f>
         <v>0.1265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
-        <v>500</v>
+      <c r="A13" t="s">
+        <v>5</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1059,8 +1204,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
-        <v>500</v>
+      <c r="A14" t="s">
+        <v>5</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1077,8 +1222,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
-        <v>500</v>
+      <c r="A15" t="s">
+        <v>5</v>
       </c>
       <c r="B15">
         <v>16</v>
@@ -1092,6 +1237,96 @@
       <c r="E15">
         <f>AVERAGE(C15:D15)</f>
         <v>0.3136215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.469277</v>
+      </c>
+      <c r="D18">
+        <v>0.46690500000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E16:E22" si="2">AVERAGE(C18:D18)</f>
+        <v>0.46809100000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>500</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.12915599999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.12915599999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0.12915599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>250</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>3.9988799999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.8462499999999997E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>3.9225650000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>125</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1.50609E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.4964999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1.5012950000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>2.2089399999999999E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.2339199999999999E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>2.7214299999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1104,35 +1339,10 @@
       <c r="G23" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="F31" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
